--- a/biology/Virologie/Jean-Jacques_Razafindranazy/Jean-Jacques_Razafindranazy.xlsx
+++ b/biology/Virologie/Jean-Jacques_Razafindranazy/Jean-Jacques_Razafindranazy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques Razafindranazy, né le 9 novembre 1952 à Amboangibe[1] (Madagascar) et mort le 21 mars 2020 à Lille, est un médecin urgentiste français d'origine malgache.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Razafindranazy, né le 9 novembre 1952 à Amboangibe (Madagascar) et mort le 21 mars 2020 à Lille, est un médecin urgentiste français d'origine malgache.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques Razafindranazy naît dans la colonie de Madagascar en 1952[2],[3]. Domicilié à Soissons où son épouse, également médecin, travaille en tant que pédiatre au centre hospitalier de Soissons, Jean-Jacques Razafindranazy exerce en tant qu'urgentiste au sein de plusieurs institutions sises au nord-est de la France — dont Chauny et Saint-Quentin dans l'Aisne ainsi que Péronne dans la Somme — avant d'aboutir, en 2013, comme médecin urgentiste dans l'Oise au centre hospitalier de Compiègne[2],[4]. 
-De retour de vacances de Madagascar à la fin février 2020[4],[5] d'où ses enfants le décrivent comme étant alors revenu « en pleine forme[5],[6] », il va prêter main-forte à ses collègues et confrères médecins submergés par le flot continu et incessamment croissant de patients contaminés par la Covid-19[7]. Une majeure partie des malades se trouve en état de dyspnée et détresse respiratoire sévères nécessitant urgemment le recours immédiat à une assistance respiratoire. Le dévouement de Jean-Jacques Razafindranazy lui sera fatal. En effet, la pénurie de masques FFP2 et, consécutivement, l'impossibilité  pour  nombre de médecins et d'infirmiers de pouvoir eux-mêmes se protéger efficacement du virus — en l'absence de mesures prophylactiques suffisantes — font que l'urgentiste, contaminé à son tour par les patients qu'il s’efforçait de secourir, commence peu après à ressentir lui-même les prémices et symptômes initiaux déclencheurs de la maladie. 
-Le 4 mars 2020, Jean-Jacques Razafindranazy est hospitalisé et transféré au centre hospitalier régional universitaire de Lille. Testé positif au SARS-CoV-2, son état se dégrade brusquement une dizaine de jours plus tard[8]. Il meurt le 21 mars 2020[9],[10],[11], dans l’isolement de sa chambre d’hôpital, loin de son épouse et de ses enfants qui n’ont jamais pu lui rendre visite en raison du risque de contamination[12]. De plus, en raison des mesures de confinement drastiques à cette période, Jean-Jacques Razafindranazy ne peut pas voir son vœu exaucé d’être inhumé à Madagascar, son île natale, selon le rite funéraire malgache[8],[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Razafindranazy naît dans la colonie de Madagascar en 1952,. Domicilié à Soissons où son épouse, également médecin, travaille en tant que pédiatre au centre hospitalier de Soissons, Jean-Jacques Razafindranazy exerce en tant qu'urgentiste au sein de plusieurs institutions sises au nord-est de la France — dont Chauny et Saint-Quentin dans l'Aisne ainsi que Péronne dans la Somme — avant d'aboutir, en 2013, comme médecin urgentiste dans l'Oise au centre hospitalier de Compiègne,. 
+De retour de vacances de Madagascar à la fin février 2020, d'où ses enfants le décrivent comme étant alors revenu « en pleine forme, », il va prêter main-forte à ses collègues et confrères médecins submergés par le flot continu et incessamment croissant de patients contaminés par la Covid-19. Une majeure partie des malades se trouve en état de dyspnée et détresse respiratoire sévères nécessitant urgemment le recours immédiat à une assistance respiratoire. Le dévouement de Jean-Jacques Razafindranazy lui sera fatal. En effet, la pénurie de masques FFP2 et, consécutivement, l'impossibilité  pour  nombre de médecins et d'infirmiers de pouvoir eux-mêmes se protéger efficacement du virus — en l'absence de mesures prophylactiques suffisantes — font que l'urgentiste, contaminé à son tour par les patients qu'il s’efforçait de secourir, commence peu après à ressentir lui-même les prémices et symptômes initiaux déclencheurs de la maladie. 
+Le 4 mars 2020, Jean-Jacques Razafindranazy est hospitalisé et transféré au centre hospitalier régional universitaire de Lille. Testé positif au SARS-CoV-2, son état se dégrade brusquement une dizaine de jours plus tard. Il meurt le 21 mars 2020 dans l’isolement de sa chambre d’hôpital, loin de son épouse et de ses enfants qui n’ont jamais pu lui rendre visite en raison du risque de contamination. De plus, en raison des mesures de confinement drastiques à cette période, Jean-Jacques Razafindranazy ne peut pas voir son vœu exaucé d’être inhumé à Madagascar, son île natale, selon le rite funéraire malgache,.
 </t>
         </is>
       </c>
@@ -546,16 +560,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communication ministérielle
-Le ministre des Solidarités et de la Santé Olivier Véran[14],[15] annonce le décès du praticien hospitalier sur RTL au cours de l'émission Le Grand Jury du 22 mars 2020[16]. Patrick Pelloux, président de l'Association des médecins urgentistes de France, relaie l'information le même soir sur BFM TV[14].
-Réaction du corps soignant
-Première victime parmi les professionnels de la santé affairés à tenter d'endiguer la pandémie[9],[11],[17],[18], la disparition du Dr Jean-Jacques Razafindranazy suscite l’émoi au sein du monde médical et du personnel soignant[6], notamment en raison de la pénurie de masques FFP2 et de l'absence de mesures prophylactiques suffisantes destinées à assurer une protection efficace contre les effets délétères du SARS-CoV-2[9].
-Le cas de Jean-Jacques Razafindranazy, premier praticien hospitalier français officiellement mort de la Covid-19 dans l'exercice de ses fonctions[18], est rapidement suivi par d’autres décès de membres du corps médical, eux aussi victimes de la Covid-19[4],[12],[19],[20],
-[21]. 
-Hommages
-Le maire de Compiègne, Philippe Marini, dit de lui : « À plus de 67 ans, presque 68, il aurait très bien pu arrêter son exercice professionnel. Il a voulu être là. […] Il a donné sa vie pour les autres[3]. »
-L’ancien Premier ministre Jean-Pierre Raffarin propose de décerner la Légion d’honneur à chaque membre du personnel soignant qui serait mort en portant assistance et secours aux malades du coronavirus[19],[note 1].
-La promotion ENFiP 2019/2020 des contrôleurs des finances publiques choisit  de s'appeler par son nom en sa mémoire[23].
+          <t>Communication ministérielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministre des Solidarités et de la Santé Olivier Véran, annonce le décès du praticien hospitalier sur RTL au cours de l'émission Le Grand Jury du 22 mars 2020. Patrick Pelloux, président de l'Association des médecins urgentistes de France, relaie l'information le même soir sur BFM TV.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Jacques_Razafindranazy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Jacques_Razafindranazy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Implications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réaction du corps soignant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Première victime parmi les professionnels de la santé affairés à tenter d'endiguer la pandémie la disparition du Dr Jean-Jacques Razafindranazy suscite l’émoi au sein du monde médical et du personnel soignant, notamment en raison de la pénurie de masques FFP2 et de l'absence de mesures prophylactiques suffisantes destinées à assurer une protection efficace contre les effets délétères du SARS-CoV-2.
+Le cas de Jean-Jacques Razafindranazy, premier praticien hospitalier français officiellement mort de la Covid-19 dans l'exercice de ses fonctions, est rapidement suivi par d’autres décès de membres du corps médical, eux aussi victimes de la Covid-19
+. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Jacques_Razafindranazy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Jacques_Razafindranazy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Implications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maire de Compiègne, Philippe Marini, dit de lui : « À plus de 67 ans, presque 68, il aurait très bien pu arrêter son exercice professionnel. Il a voulu être là. […] Il a donné sa vie pour les autres. »
+L’ancien Premier ministre Jean-Pierre Raffarin propose de décerner la Légion d’honneur à chaque membre du personnel soignant qui serait mort en portant assistance et secours aux malades du coronavirus,[note 1].
+La promotion ENFiP 2019/2020 des contrôleurs des finances publiques choisit  de s'appeler par son nom en sa mémoire.
 </t>
         </is>
       </c>
